--- a/text/for 반복문 풀이.xlsx
+++ b/text/for 반복문 풀이.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,150 @@
   </si>
   <si>
     <t>1+3+5+7+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>even</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i(odd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i(even)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+2+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num = 100;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evenOdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evenOdd = 0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.. +97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.. +96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.. + 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.. + 97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.. + 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.. +98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.. + 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I % 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 -&gt; 2 -&gt; 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 -&gt; 3 -&gt; 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로 나눈 몫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로 나눈 나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 나머지 = 나누고 남은 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수 % 2 == 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -187,13 +331,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,13 +477,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -236,49 +543,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>203596</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="19050"/>
-          <a:ext cx="4114800" cy="1232296"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -394,6 +658,115 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10203</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="5467350"/>
+          <a:ext cx="4858428" cy="3771900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10329</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="9848850"/>
+          <a:ext cx="5763429" cy="5057775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4114800" cy="1232296"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19050"/>
+          <a:ext cx="4114800" cy="1232296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -660,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G1:K11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,182 +1044,309 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>100</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="I3" s="3">
-        <v>200</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G4" s="2">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
-        <v>300</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G5" s="2">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="3">
-        <v>400</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G6" s="2">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
         <v>4</v>
       </c>
-      <c r="H6" s="2">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
         <v>5</v>
       </c>
-      <c r="I6" s="3">
-        <v>500</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G7" s="2">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3">
-        <v>600</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G8" s="2">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7</v>
-      </c>
-      <c r="I8" s="3">
-        <v>700</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G9" s="2">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2">
-        <v>8</v>
-      </c>
-      <c r="I9" s="3">
-        <v>800</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G10" s="2">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2">
-        <v>9</v>
-      </c>
-      <c r="I10" s="3">
-        <v>900</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="7:11" x14ac:dyDescent="0.3">
-      <c r="G11" s="2">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
+  <mergeCells count="28">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:Q25"/>
+  <dimension ref="E1:X72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -939,16 +1439,16 @@
       </c>
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="7"/>
       <c r="O14" s="2" t="s">
         <v>3</v>
       </c>
@@ -960,14 +1460,14 @@
       </c>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="7"/>
       <c r="O15" s="2">
         <v>0</v>
       </c>
@@ -979,16 +1479,16 @@
       </c>
     </row>
     <row r="16" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3"/>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="O16" s="2">
         <v>2</v>
       </c>
@@ -1000,18 +1500,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="7">
         <f>SUM(G16+F17)</f>
         <v>3</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="7"/>
       <c r="O17" s="2">
         <v>4</v>
       </c>
@@ -1023,18 +1523,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="7">
         <f t="shared" ref="G18:G24" si="1">SUM(G17+F18)</f>
         <v>6</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="7"/>
       <c r="O18" s="2">
         <v>6</v>
       </c>
@@ -1046,18 +1546,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E19" s="2">
         <v>3</v>
       </c>
       <c r="F19" s="2">
         <v>4</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="7"/>
       <c r="O19" s="2">
         <v>8</v>
       </c>
@@ -1069,86 +1569,1000 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E20" s="2">
         <v>4</v>
       </c>
       <c r="F20" s="2">
         <v>5</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" s="2">
         <v>6</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="7">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E22" s="2">
         <v>6</v>
       </c>
       <c r="F22" s="2">
         <v>7</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="7">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E23" s="2">
         <v>7</v>
       </c>
       <c r="F23" s="2">
         <v>8</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="7">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="H23" s="7"/>
+      <c r="T23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E24" s="2">
         <v>8</v>
       </c>
       <c r="F24" s="2">
         <v>9</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="7">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="H24" s="7"/>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="V24" s="7">
+        <v>100</v>
+      </c>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+    </row>
+    <row r="25" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E25" s="2">
         <v>9</v>
       </c>
       <c r="F25" s="2">
         <v>10</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="7">
         <f t="shared" ref="G25" si="2">SUM(G24+F25)</f>
         <v>55</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="7"/>
+      <c r="T25" s="2">
+        <v>1</v>
+      </c>
+      <c r="U25" s="2">
+        <v>2</v>
+      </c>
+      <c r="V25" s="7">
+        <v>200</v>
+      </c>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+    </row>
+    <row r="26" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="T26" s="2">
+        <v>2</v>
+      </c>
+      <c r="U26" s="2">
+        <v>3</v>
+      </c>
+      <c r="V26" s="7">
+        <v>300</v>
+      </c>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+    </row>
+    <row r="27" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="I27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="T27" s="2">
+        <v>3</v>
+      </c>
+      <c r="U27" s="2">
+        <v>4</v>
+      </c>
+      <c r="V27" s="7">
+        <v>400</v>
+      </c>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+    </row>
+    <row r="28" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="I28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T28" s="2">
+        <v>4</v>
+      </c>
+      <c r="U28" s="2">
+        <v>5</v>
+      </c>
+      <c r="V28" s="7">
+        <v>500</v>
+      </c>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+    </row>
+    <row r="29" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="T29" s="2">
+        <v>5</v>
+      </c>
+      <c r="U29" s="2">
+        <v>6</v>
+      </c>
+      <c r="V29" s="7">
+        <v>600</v>
+      </c>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+    </row>
+    <row r="30" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>6</v>
+      </c>
+      <c r="U30" s="2">
+        <v>7</v>
+      </c>
+      <c r="V30" s="7">
+        <v>700</v>
+      </c>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+    </row>
+    <row r="31" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="I31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="T31" s="2">
+        <v>7</v>
+      </c>
+      <c r="U31" s="2">
+        <v>8</v>
+      </c>
+      <c r="V31" s="7">
+        <v>800</v>
+      </c>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+    </row>
+    <row r="32" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="I32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="3">
+        <v>4</v>
+      </c>
+      <c r="T32" s="2">
+        <v>8</v>
+      </c>
+      <c r="U32" s="2">
+        <v>9</v>
+      </c>
+      <c r="V32" s="7">
+        <v>900</v>
+      </c>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+    </row>
+    <row r="33" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I33" s="3">
+        <v>15</v>
+      </c>
+      <c r="J33" s="3">
+        <v>7</v>
+      </c>
+      <c r="K33" s="3">
+        <v>12</v>
+      </c>
+      <c r="L33" s="3">
+        <v>6</v>
+      </c>
+      <c r="T33" s="2">
+        <v>9</v>
+      </c>
+      <c r="U33" s="2">
+        <v>10</v>
+      </c>
+      <c r="V33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+    </row>
+    <row r="34" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I34" s="3">
+        <f>SUM(I33+J34)</f>
+        <v>24</v>
+      </c>
+      <c r="J34" s="3">
+        <v>9</v>
+      </c>
+      <c r="K34" s="3">
+        <f>SUM(K33 + L34)</f>
+        <v>20</v>
+      </c>
+      <c r="L34" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I35" s="3">
+        <f t="shared" ref="I35:I43" si="3">SUM(I34+J35)</f>
+        <v>35</v>
+      </c>
+      <c r="J35" s="3">
+        <v>11</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" ref="K35:K44" si="4">SUM(K34 + L35)</f>
+        <v>30</v>
+      </c>
+      <c r="L35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I36" s="3">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J36" s="3">
+        <v>13</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="L36" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I37" s="3">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="J37" s="3">
+        <v>15</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="L37" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I38" s="3">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J38" s="3">
+        <v>17</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="L38" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I39" s="3">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="J39" s="3">
+        <v>19</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="L39" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I40" s="3">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="J40" s="3">
+        <v>21</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="L40" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I41" s="3">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="J41" s="3">
+        <v>23</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="L41" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I42" s="3">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="J42" s="3">
+        <v>25</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="L42" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I43" s="3">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="J43" s="3">
+        <v>27</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="4"/>
+        <v>182</v>
+      </c>
+      <c r="L43" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I44" s="3">
+        <f>SUM(I43+J44)</f>
+        <v>224</v>
+      </c>
+      <c r="J44" s="3">
+        <v>29</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="L44" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
+        <v>2</v>
+      </c>
+      <c r="N47" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>1</v>
+      </c>
+      <c r="R47" s="3">
+        <v>2</v>
+      </c>
+      <c r="S47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="9:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="18"/>
+      <c r="Q48" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R48" s="20"/>
+    </row>
+    <row r="49" spans="12:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S49" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="6">
+        <v>0</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+    </row>
+    <row r="51" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>1</v>
+      </c>
+      <c r="R51" s="3">
+        <v>1</v>
+      </c>
+      <c r="S51" s="3">
+        <v>1</v>
+      </c>
+      <c r="T51" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U51" s="10"/>
+    </row>
+    <row r="52" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="3">
+        <v>2</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>1</v>
+      </c>
+      <c r="R52" s="3">
+        <v>2</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="3">
+        <v>3</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R53" s="4">
+        <v>3</v>
+      </c>
+      <c r="S53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="3">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R54" s="4">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="3">
+        <v>5</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" s="4">
+        <v>5</v>
+      </c>
+      <c r="S55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L56" s="3">
+        <v>12</v>
+      </c>
+      <c r="M56" s="3">
+        <v>6</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R56" s="4">
+        <v>6</v>
+      </c>
+      <c r="S56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L57" s="3">
+        <v>12</v>
+      </c>
+      <c r="M57" s="3">
+        <v>7</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>15</v>
+      </c>
+      <c r="R57" s="4">
+        <v>7</v>
+      </c>
+      <c r="S57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L58" s="3">
+        <v>20</v>
+      </c>
+      <c r="M58" s="3">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>15</v>
+      </c>
+      <c r="R58" s="4">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L59" s="3">
+        <v>20</v>
+      </c>
+      <c r="M59" s="3">
+        <v>9</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>24</v>
+      </c>
+      <c r="R59" s="4">
+        <v>9</v>
+      </c>
+      <c r="S59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L60" s="3">
+        <v>30</v>
+      </c>
+      <c r="M60" s="3">
+        <v>10</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>24</v>
+      </c>
+      <c r="R60" s="4">
+        <v>10</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L61" s="3">
+        <v>30</v>
+      </c>
+      <c r="M61" s="3">
+        <v>11</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>35</v>
+      </c>
+      <c r="R61" s="4">
+        <v>11</v>
+      </c>
+      <c r="S61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L62" s="3">
+        <v>42</v>
+      </c>
+      <c r="M62" s="3">
+        <v>12</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>35</v>
+      </c>
+      <c r="R62" s="4">
+        <v>12</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>42</v>
+      </c>
+      <c r="M63" s="3">
+        <v>13</v>
+      </c>
+      <c r="N63" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>48</v>
+      </c>
+      <c r="R63" s="4">
+        <v>13</v>
+      </c>
+      <c r="S63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>56</v>
+      </c>
+      <c r="M64" s="3">
+        <v>14</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>48</v>
+      </c>
+      <c r="R64" s="4">
+        <v>14</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>56</v>
+      </c>
+      <c r="M65" s="3">
+        <v>15</v>
+      </c>
+      <c r="N65" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>63</v>
+      </c>
+      <c r="R65" s="4">
+        <v>15</v>
+      </c>
+      <c r="S65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="L66" s="3">
+        <v>72</v>
+      </c>
+      <c r="M66" s="3">
+        <v>16</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>63</v>
+      </c>
+      <c r="R66" s="4">
+        <v>16</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="L67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>80</v>
+      </c>
+      <c r="R67" s="4">
+        <v>17</v>
+      </c>
+      <c r="S67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="L68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M68" s="3">
+        <v>97</v>
+      </c>
+      <c r="N68" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="L69" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M69" s="3">
+        <v>98</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R69" s="4">
+        <v>97</v>
+      </c>
+      <c r="S69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="L70" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" s="3">
+        <v>99</v>
+      </c>
+      <c r="N70" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R70" s="4">
+        <v>98</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="L71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71" s="3">
+        <v>100</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R71" s="4">
+        <v>99</v>
+      </c>
+      <c r="S71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="Q72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R72" s="4">
+        <v>100</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="30">
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G19:H19"/>
@@ -1157,11 +2571,6 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
